--- a/server/excels/contract.xlsx
+++ b/server/excels/contract.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t xml:space="preserve"> استان</t>
   </si>
@@ -69,9 +69,6 @@
     <t>تاریخ پایان با احتساب تمدید</t>
   </si>
   <si>
-    <t>تاریخ تشکیل کمیسیون</t>
-  </si>
-  <si>
     <t>مدت پیمان (روز)</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t>تلفن همراه مدیر پروژه</t>
   </si>
   <si>
-    <t>پیشرفت فیزیکی-برنامه</t>
-  </si>
-  <si>
-    <t>پیشرفت فیزیکی-عملکرد</t>
-  </si>
-  <si>
     <t>شماره آخرین صورت وضعیت تایید شده</t>
   </si>
   <si>
@@ -181,13 +172,25 @@
   </si>
   <si>
     <t>پیشرفت واقعی</t>
+  </si>
+  <si>
+    <t>تاریخ تشکیل کمیسیون (تحویل موقت)</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <t>تاریخ تشکیل کمیسیون (تحویل قطعی)</t>
+  </si>
+  <si>
+    <t>شماره نامه ابلاغ پیمان</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +204,14 @@
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -210,13 +221,20 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="7" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,44 +243,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashDotDot">
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="dashDotDot">
         <color indexed="64"/>
       </top>
-      <bottom style="dashDotDot">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashDotDot">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashDotDot">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -271,19 +261,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,191 +547,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG1"/>
+  <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BG1" sqref="W1:BG1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BB1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BC1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BF1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF1" s="5" t="s">
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
         <v>52</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/server/excels/contract.xlsx
+++ b/server/excels/contract.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve"> استان</t>
   </si>
@@ -90,12 +90,6 @@
     <t>مشاور طراح</t>
   </si>
   <si>
-    <t>تاریخ شروع بیمه</t>
-  </si>
-  <si>
-    <t>تاریخ پایان بیمه</t>
-  </si>
-  <si>
     <t>بیمه گر</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>مبلغ ازاد سازی ضمانت انجام تعهدات</t>
   </si>
   <si>
-    <t>تاریخ نامه آزاد سازی 50 درصد اول حسن انجام کار</t>
-  </si>
-  <si>
     <t>پیشرفت برنامه</t>
   </si>
   <si>
@@ -177,13 +168,31 @@
     <t>تاریخ تشکیل کمیسیون (تحویل موقت)</t>
   </si>
   <si>
-    <t>÷</t>
-  </si>
-  <si>
     <t>تاریخ تشکیل کمیسیون (تحویل قطعی)</t>
   </si>
   <si>
     <t>شماره نامه ابلاغ پیمان</t>
+  </si>
+  <si>
+    <t>تاریخ شروع بیمه(بیمه)</t>
+  </si>
+  <si>
+    <t>تاریخ پایان بیمه(بیمه)</t>
+  </si>
+  <si>
+    <t>تاریخ شروع بیمه(الحاقیه بیمه)</t>
+  </si>
+  <si>
+    <t>تاریخ پایان بیمه(الحاقیه بیمه)</t>
+  </si>
+  <si>
+    <t>تاریخ نامه آزاد سازی 50 درصد دوم حسن انجام کار</t>
+  </si>
+  <si>
+    <t>شماره نامه آزاد سازی 50 درصد دوم حسن انجام کار</t>
+  </si>
+  <si>
+    <t>مبلغ ازاد سازی 50 درصد دوم حسن انجام کار</t>
   </si>
 </sst>
 </file>
@@ -547,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF5"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AH1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -608,19 +617,19 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>17</v>
@@ -641,99 +650,94 @@
         <v>22</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="AV1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="T5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/server/excels/contract.xlsx
+++ b/server/excels/contract.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve"> استان</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>مبلغ ازاد سازی 50 درصد دوم حسن انجام کار</t>
+  </si>
+  <si>
+    <t>پیشرفت فیزیکی</t>
   </si>
 </sst>
 </file>
@@ -556,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF1"/>
+  <dimension ref="A1:BG1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AH1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH2" sqref="A2:XFD4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AI1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,51 +695,54 @@
         <v>32</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
